--- a/Results/simulation/Book1.xlsx
+++ b/Results/simulation/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\MIMOlab\Codes\NeuronWithNetworkx\results\simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839CDE5-7D11-4658-A2A9-481691267C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDB6E8-2344-445A-9A05-880B8CB3A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{67CB2D2C-CF16-4DD2-91EF-3EBE85991BD4}"/>
+    <workbookView xWindow="6825" yWindow="405" windowWidth="20910" windowHeight="11985" xr2:uid="{67CB2D2C-CF16-4DD2-91EF-3EBE85991BD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Cluster Feature</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>1-OriCirVar</t>
+  </si>
+  <si>
+    <t>Cluster radius</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997A388B-8B19-460F-835D-29967ABFE909}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,15 +424,15 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -439,38 +442,41 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>135</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>180</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>225</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>270</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>315</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -480,11 +486,14 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="N3">
         <v>0.2208</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -494,11 +503,14 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="N4">
         <v>0.26150000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -508,11 +520,14 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="N5">
         <v>0.29409999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -522,11 +537,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="N6">
         <v>0.36359999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -536,24 +554,129 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
       <c r="L7">
-        <v>0.24529999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.14180000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -561,19 +684,42 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>0.45950000000000002</v>
+      </c>
+      <c r="O12">
+        <v>0.23949999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>